--- a/22/12.xlsx
+++ b/22/12.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pluttan/Downloads/files (9)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amd\PycharmProjects\infegerep\22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3577A590-4041-C942-9C05-77F178B1E9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Задание" sheetId="2" r:id="rId1"/>
     <sheet name="22" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID процесса B</t>
   </si>
@@ -34,13 +33,7 @@
     <t>Время выполнения процесса B (мс)</t>
   </si>
   <si>
-    <t>ID процессов A</t>
-  </si>
-  <si>
     <t>1; 2</t>
-  </si>
-  <si>
-    <t>4; 6</t>
   </si>
   <si>
     <t>В файле содержится информация о совокупности N вычислительных процессов, которые могут выполняться параллельно или последовательно.</t>
@@ -67,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -89,13 +82,52 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -122,10 +154,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,9 +185,21 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,50 +510,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79734DEF-4842-4E46-8D8B-D12A7B8CD443}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="99" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="151.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="151.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="49.83203125" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="76.5" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="130" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="127.5" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="55" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -514,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="8">
         <v>1</v>
       </c>
@@ -528,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8">
         <v>2</v>
       </c>
@@ -539,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="8">
         <v>3</v>
       </c>
@@ -547,10 +594,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="8">
         <v>4</v>
       </c>
@@ -561,16 +608,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -581,184 +628,1174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="1" customWidth="1"/>
-    <col min="4" max="1024" width="8.5" style="1"/>
+    <col min="1" max="1024" width="4.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>15</v>
+      </c>
+      <c r="C1" s="10">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11">
+        <f>VLOOKUP(C1,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F1" s="11">
+        <f>VLOOKUP(D1,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G1" s="12">
+        <f>B1+MAX(E1,F1,)</f>
+        <v>15</v>
+      </c>
+      <c r="H1" s="1">
+        <f>G1-B1</f>
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>43</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>44</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>45</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>46</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>47</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>48</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>49</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>50</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>56</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>58</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>59</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>60</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>61</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>62</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>63</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>15</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11">
+        <f t="shared" ref="E2:F15" si="0">VLOOKUP(C2,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <f t="shared" ref="G2:G14" si="1">B2+MAX(E2,F2,)</f>
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H14" si="2">G2-B2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
+      <c r="L2" s="10">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10">
+        <v>1</v>
+      </c>
+      <c r="N2" s="10">
+        <v>1</v>
+      </c>
+      <c r="O2" s="10">
+        <v>1</v>
+      </c>
+      <c r="P2" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>1</v>
+      </c>
+      <c r="R2" s="10">
+        <v>1</v>
+      </c>
+      <c r="S2" s="10">
+        <v>1</v>
+      </c>
+      <c r="T2" s="10">
+        <v>1</v>
+      </c>
+      <c r="U2" s="10">
+        <v>1</v>
+      </c>
+      <c r="V2" s="10">
+        <v>1</v>
+      </c>
+      <c r="W2" s="10">
+        <v>1</v>
+      </c>
+      <c r="X2" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F3" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10">
+        <v>1</v>
+      </c>
+      <c r="P3" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>1</v>
+      </c>
+      <c r="R3" s="10">
+        <v>1</v>
+      </c>
+      <c r="S3" s="10">
+        <v>1</v>
+      </c>
+      <c r="T3" s="10">
+        <v>1</v>
+      </c>
+      <c r="U3" s="10">
+        <v>1</v>
+      </c>
+      <c r="V3" s="10">
+        <v>1</v>
+      </c>
+      <c r="W3" s="10">
+        <v>1</v>
+      </c>
+      <c r="X3" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="Y4"/>
+      <c r="Z4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="AB5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
         <v>12</v>
       </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="C7" s="10">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="10">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="10"/>
+      <c r="BA8" s="10"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="10"/>
+      <c r="BE8" s="10"/>
+      <c r="BF8" s="10"/>
+      <c r="BG8" s="10"/>
+      <c r="BH8" s="10"/>
+      <c r="BI8" s="10"/>
+      <c r="BJ8" s="10"/>
+    </row>
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>8</v>
+      </c>
+      <c r="BK9" s="10"/>
+      <c r="BL9" s="10"/>
+      <c r="BM9" s="10"/>
+      <c r="BN9" s="10"/>
+      <c r="BO9" s="10"/>
+      <c r="BP9" s="10"/>
+      <c r="BQ9" s="10"/>
+      <c r="BR9" s="10"/>
+      <c r="BS9" s="10"/>
+      <c r="BT9" s="10"/>
+      <c r="BU9" s="10"/>
+      <c r="BV9" s="10"/>
+    </row>
+    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="10">
+        <v>1</v>
+      </c>
+      <c r="P10" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>1</v>
+      </c>
+      <c r="R10" s="10">
+        <v>1</v>
+      </c>
+      <c r="S10" s="10">
+        <v>1</v>
+      </c>
+      <c r="T10" s="10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="10">
+        <v>1</v>
+      </c>
+      <c r="V10" s="10">
+        <v>1</v>
+      </c>
+      <c r="W10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="C11" s="10">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10">
+        <v>1</v>
+      </c>
+      <c r="M11" s="10">
+        <v>1</v>
+      </c>
+      <c r="N11" s="10">
+        <v>1</v>
+      </c>
+      <c r="O11" s="10">
+        <v>1</v>
+      </c>
+      <c r="P11" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>1</v>
+      </c>
+      <c r="R11" s="10">
+        <v>1</v>
+      </c>
+      <c r="S11" s="10">
+        <v>1</v>
+      </c>
+      <c r="T11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="C9" s="1">
+      <c r="B12" s="1">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10">
+        <v>10</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>11</v>
+      </c>
+      <c r="X12" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>12</v>
+      </c>
+      <c r="U13" s="10">
+        <v>1</v>
+      </c>
+      <c r="V13" s="10">
+        <v>1</v>
+      </c>
+      <c r="W13" s="10">
+        <v>1</v>
+      </c>
+      <c r="X13" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10">
         <v>13</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="D14" s="10"/>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J14" s="1">
+        <v>13</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10">
+        <v>1</v>
+      </c>
+      <c r="M14" s="10">
+        <v>1</v>
+      </c>
+      <c r="N14" s="10">
+        <v>1</v>
+      </c>
+      <c r="O14" s="10">
+        <v>1</v>
+      </c>
+      <c r="P14" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>14</v>
+      </c>
+      <c r="R15" s="10">
+        <v>1</v>
+      </c>
+      <c r="S15" s="10">
+        <v>1</v>
+      </c>
+      <c r="T15" s="10">
+        <v>1</v>
+      </c>
+      <c r="U15" s="10">
+        <v>1</v>
+      </c>
+      <c r="V15" s="10">
+        <v>1</v>
+      </c>
+      <c r="W15" s="10">
+        <v>1</v>
+      </c>
+      <c r="X15" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="K16" s="1">
+        <f>SUM(K2:K15)</f>
+        <v>5</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" ref="L16:AN16" si="3">SUM(L2:L15)</f>
+        <v>5</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Z16" s="1">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>13</v>
+      <c r="AA16" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AC16" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AD16" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AE16" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AG16" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI16" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AK16" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AL16" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AM16" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AN16" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
